--- a/Evaluation Measurements/Allocator_Evaluation.xlsx
+++ b/Evaluation Measurements/Allocator_Evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zx510\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zx510\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -528,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO166"/>
+  <dimension ref="A1:DP86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="CN1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="DI16" sqref="DI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +540,7 @@
     <col min="2" max="2" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
@@ -562,7 +562,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -920,8 +920,11 @@
       <c r="DO3">
         <v>13</v>
       </c>
+      <c r="DP3">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1073,8 +1076,9 @@
       <c r="DM4" s="2"/>
       <c r="DN4" s="2"/>
       <c r="DO4" s="2"/>
+      <c r="DP4" s="2"/>
     </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1226,8 +1230,8 @@
       <c r="DA5" s="1"/>
       <c r="DB5" s="1"/>
       <c r="DC5" s="9">
-        <f>AVERAGE(DC6:DO6)</f>
-        <v>2734.2355769230762</v>
+        <f>AVERAGE(DC6:DP6)</f>
+        <v>2735.7794642857139</v>
       </c>
       <c r="DD5" s="2"/>
       <c r="DE5" s="2"/>
@@ -1241,8 +1245,9 @@
       <c r="DM5" s="2"/>
       <c r="DN5" s="2"/>
       <c r="DO5" s="2"/>
+      <c r="DP5" s="2"/>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1715,11 +1720,15 @@
         <v>2750.2624999999998</v>
       </c>
       <c r="DO6" s="10">
-        <f t="shared" ref="DO6" si="112">AVERAGE(DO7:DO86)</f>
+        <f t="shared" ref="DO6:DP6" si="112">AVERAGE(DO7:DO86)</f>
         <v>2752.8249999999998</v>
       </c>
+      <c r="DP6" s="10">
+        <f t="shared" si="112"/>
+        <v>2755.85</v>
+      </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:120" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -2077,8 +2086,11 @@
       <c r="DO7">
         <v>6396</v>
       </c>
+      <c r="DP7">
+        <v>6797</v>
+      </c>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>296</v>
       </c>
@@ -2433,8 +2445,11 @@
       <c r="DO8">
         <v>7578</v>
       </c>
+      <c r="DP8">
+        <v>7578</v>
+      </c>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>274</v>
       </c>
@@ -2789,8 +2804,11 @@
       <c r="DO9">
         <v>6783</v>
       </c>
+      <c r="DP9">
+        <v>6776</v>
+      </c>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>274</v>
       </c>
@@ -3145,8 +3163,11 @@
       <c r="DO10">
         <v>6828</v>
       </c>
+      <c r="DP10">
+        <v>6835</v>
+      </c>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>230</v>
       </c>
@@ -3501,8 +3522,11 @@
       <c r="DO11">
         <v>6206</v>
       </c>
+      <c r="DP11">
+        <v>6206</v>
+      </c>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>241</v>
       </c>
@@ -3857,8 +3881,11 @@
       <c r="DO12">
         <v>6206</v>
       </c>
+      <c r="DP12">
+        <v>6206</v>
+      </c>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>241</v>
       </c>
@@ -4213,8 +4240,11 @@
       <c r="DO13">
         <v>6783</v>
       </c>
+      <c r="DP13">
+        <v>6776</v>
+      </c>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>285</v>
       </c>
@@ -4569,8 +4599,11 @@
       <c r="DO14">
         <v>6744</v>
       </c>
+      <c r="DP14">
+        <v>6744</v>
+      </c>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B15" s="6">
         <v>329</v>
       </c>
@@ -4925,8 +4958,11 @@
       <c r="DO15">
         <v>6744</v>
       </c>
+      <c r="DP15">
+        <v>6744</v>
+      </c>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:120" x14ac:dyDescent="0.25">
       <c r="B16" s="6">
         <v>142</v>
       </c>
@@ -5281,8 +5317,11 @@
       <c r="DO16">
         <v>5445</v>
       </c>
+      <c r="DP16">
+        <v>5347</v>
+      </c>
     </row>
-    <row r="17" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B17" s="6">
         <v>208</v>
       </c>
@@ -5637,8 +5676,11 @@
       <c r="DO17">
         <v>5507</v>
       </c>
+      <c r="DP17">
+        <v>5500</v>
+      </c>
     </row>
-    <row r="18" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B18" s="6">
         <v>274</v>
       </c>
@@ -5993,8 +6035,11 @@
       <c r="DO18">
         <v>6532</v>
       </c>
+      <c r="DP18">
+        <v>6637</v>
+      </c>
     </row>
-    <row r="19" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B19" s="6">
         <v>241</v>
       </c>
@@ -6349,8 +6394,11 @@
       <c r="DO19">
         <v>6744</v>
       </c>
+      <c r="DP19">
+        <v>6744</v>
+      </c>
     </row>
-    <row r="20" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B20" s="6">
         <v>109</v>
       </c>
@@ -6705,8 +6753,11 @@
       <c r="DO20">
         <v>4269</v>
       </c>
+      <c r="DP20">
+        <v>4073</v>
+      </c>
     </row>
-    <row r="21" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B21" s="6">
         <v>186</v>
       </c>
@@ -7061,8 +7112,11 @@
       <c r="DO21">
         <v>5115</v>
       </c>
+      <c r="DP21">
+        <v>5206</v>
+      </c>
     </row>
-    <row r="22" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B22" s="6">
         <v>296</v>
       </c>
@@ -7417,8 +7471,11 @@
       <c r="DO22">
         <v>6448</v>
       </c>
+      <c r="DP22">
+        <v>6546</v>
+      </c>
     </row>
-    <row r="23" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B23" s="6">
         <v>329</v>
       </c>
@@ -7773,8 +7830,11 @@
       <c r="DO23">
         <v>6412</v>
       </c>
+      <c r="DP23">
+        <v>6405</v>
+      </c>
     </row>
-    <row r="24" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B24" s="6">
         <v>208</v>
       </c>
@@ -8129,8 +8189,11 @@
       <c r="DO24">
         <v>5676</v>
       </c>
+      <c r="DP24">
+        <v>5571</v>
+      </c>
     </row>
-    <row r="25" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B25" s="6">
         <v>296</v>
       </c>
@@ -8485,8 +8548,11 @@
       <c r="DO25">
         <v>6091</v>
       </c>
+      <c r="DP25">
+        <v>6182</v>
+      </c>
     </row>
-    <row r="26" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B26" s="6">
         <v>274</v>
       </c>
@@ -8841,8 +8907,11 @@
       <c r="DO26">
         <v>6229</v>
       </c>
+      <c r="DP26">
+        <v>6250</v>
+      </c>
     </row>
-    <row r="27" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B27" s="6">
         <v>241</v>
       </c>
@@ -9197,8 +9266,11 @@
       <c r="DO27">
         <v>6412</v>
       </c>
+      <c r="DP27">
+        <v>6405</v>
+      </c>
     </row>
-    <row r="28" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B28" s="6">
         <v>186</v>
       </c>
@@ -9553,8 +9625,11 @@
       <c r="DO28">
         <v>4990</v>
       </c>
+      <c r="DP28">
+        <v>4885</v>
+      </c>
     </row>
-    <row r="29" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B29" s="6">
         <v>241</v>
       </c>
@@ -9909,8 +9984,11 @@
       <c r="DO29">
         <v>5993</v>
       </c>
+      <c r="DP29">
+        <v>6084</v>
+      </c>
     </row>
-    <row r="30" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B30" s="6">
         <v>296</v>
       </c>
@@ -10265,8 +10343,11 @@
       <c r="DO30">
         <v>5900</v>
       </c>
+      <c r="DP30">
+        <v>5893</v>
+      </c>
     </row>
-    <row r="31" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
         <v>329</v>
       </c>
@@ -10621,8 +10702,11 @@
       <c r="DO31">
         <v>5698</v>
       </c>
+      <c r="DP31">
+        <v>5684</v>
+      </c>
     </row>
-    <row r="32" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
         <v>219</v>
       </c>
@@ -10977,8 +11061,11 @@
       <c r="DO32">
         <v>5191</v>
       </c>
+      <c r="DP32">
+        <v>5170</v>
+      </c>
     </row>
-    <row r="33" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
         <v>219</v>
       </c>
@@ -11333,8 +11420,11 @@
       <c r="DO33">
         <v>4729</v>
       </c>
+      <c r="DP33">
+        <v>4708</v>
+      </c>
     </row>
-    <row r="34" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
         <v>142</v>
       </c>
@@ -11689,8 +11779,11 @@
       <c r="DO34">
         <v>3762</v>
       </c>
+      <c r="DP34">
+        <v>3713</v>
+      </c>
     </row>
-    <row r="35" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
         <v>252</v>
       </c>
@@ -12045,8 +12138,11 @@
       <c r="DO35">
         <v>5481</v>
       </c>
+      <c r="DP35">
+        <v>5572</v>
+      </c>
     </row>
-    <row r="36" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
         <v>186</v>
       </c>
@@ -12401,8 +12497,11 @@
       <c r="DO36">
         <v>4127</v>
       </c>
+      <c r="DP36">
+        <v>4008</v>
+      </c>
     </row>
-    <row r="37" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
         <v>186</v>
       </c>
@@ -12757,8 +12856,11 @@
       <c r="DO37">
         <v>3791</v>
       </c>
+      <c r="DP37">
+        <v>3777</v>
+      </c>
     </row>
-    <row r="38" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
         <v>164</v>
       </c>
@@ -13113,8 +13215,11 @@
       <c r="DO38">
         <v>2586</v>
       </c>
+      <c r="DP38">
+        <v>2509</v>
+      </c>
     </row>
-    <row r="39" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
         <v>318</v>
       </c>
@@ -13469,8 +13574,11 @@
       <c r="DO39">
         <v>4169</v>
       </c>
+      <c r="DP39">
+        <v>4351</v>
+      </c>
     </row>
-    <row r="40" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
         <v>274</v>
       </c>
@@ -13825,8 +13933,11 @@
       <c r="DO40">
         <v>4015</v>
       </c>
+      <c r="DP40">
+        <v>4036</v>
+      </c>
     </row>
-    <row r="41" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
         <v>274</v>
       </c>
@@ -14181,8 +14292,11 @@
       <c r="DO41">
         <v>3365</v>
       </c>
+      <c r="DP41">
+        <v>3302</v>
+      </c>
     </row>
-    <row r="42" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
         <v>307</v>
       </c>
@@ -14537,8 +14651,11 @@
       <c r="DO42">
         <v>2990</v>
       </c>
+      <c r="DP42">
+        <v>3081</v>
+      </c>
     </row>
-    <row r="43" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>252</v>
       </c>
@@ -14893,8 +15010,11 @@
       <c r="DO43">
         <v>4204</v>
       </c>
+      <c r="DP43">
+        <v>4155</v>
+      </c>
     </row>
-    <row r="44" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
         <v>252</v>
       </c>
@@ -15249,8 +15369,11 @@
       <c r="DO44">
         <v>3553</v>
       </c>
+      <c r="DP44">
+        <v>3469</v>
+      </c>
     </row>
-    <row r="45" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
         <v>263</v>
       </c>
@@ -15605,8 +15728,11 @@
       <c r="DO45">
         <v>2679</v>
       </c>
+      <c r="DP45">
+        <v>2686</v>
+      </c>
     </row>
-    <row r="46" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
         <v>296</v>
       </c>
@@ -15961,8 +16087,11 @@
       <c r="DO46">
         <v>1569</v>
       </c>
+      <c r="DP46">
+        <v>1520</v>
+      </c>
     </row>
-    <row r="47" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
         <v>252</v>
       </c>
@@ -16317,8 +16446,11 @@
       <c r="DO47">
         <v>219</v>
       </c>
+      <c r="DP47">
+        <v>241</v>
+      </c>
     </row>
-    <row r="48" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
         <v>274</v>
       </c>
@@ -16673,8 +16805,11 @@
       <c r="DO48">
         <v>455</v>
       </c>
+      <c r="DP48">
+        <v>429</v>
+      </c>
     </row>
-    <row r="49" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
         <v>219</v>
       </c>
@@ -17029,8 +17164,11 @@
       <c r="DO49">
         <v>219</v>
       </c>
+      <c r="DP49">
+        <v>219</v>
+      </c>
     </row>
-    <row r="50" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
         <v>285</v>
       </c>
@@ -17385,8 +17523,11 @@
       <c r="DO50">
         <v>333</v>
       </c>
+      <c r="DP50">
+        <v>335</v>
+      </c>
     </row>
-    <row r="51" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
         <v>197</v>
       </c>
@@ -17741,8 +17882,11 @@
       <c r="DO51">
         <v>197</v>
       </c>
+      <c r="DP51">
+        <v>197</v>
+      </c>
     </row>
-    <row r="52" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
         <v>263</v>
       </c>
@@ -18097,8 +18241,11 @@
       <c r="DO52">
         <v>263</v>
       </c>
+      <c r="DP52">
+        <v>263</v>
+      </c>
     </row>
-    <row r="53" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
         <v>197</v>
       </c>
@@ -18453,8 +18600,11 @@
       <c r="DO53">
         <v>197</v>
       </c>
+      <c r="DP53">
+        <v>197</v>
+      </c>
     </row>
-    <row r="54" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
         <v>296</v>
       </c>
@@ -18809,8 +18959,11 @@
       <c r="DO54">
         <v>263</v>
       </c>
+      <c r="DP54">
+        <v>274</v>
+      </c>
     </row>
-    <row r="55" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
         <v>186</v>
       </c>
@@ -19165,8 +19318,11 @@
       <c r="DO55">
         <v>153</v>
       </c>
+      <c r="DP55">
+        <v>153</v>
+      </c>
     </row>
-    <row r="56" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
         <v>285</v>
       </c>
@@ -19521,8 +19677,11 @@
       <c r="DO56">
         <v>509</v>
       </c>
+      <c r="DP56">
+        <v>518</v>
+      </c>
     </row>
-    <row r="57" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
         <v>285</v>
       </c>
@@ -19877,8 +20036,11 @@
       <c r="DO57">
         <v>335</v>
       </c>
+      <c r="DP57">
+        <v>313</v>
+      </c>
     </row>
-    <row r="58" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
         <v>307</v>
       </c>
@@ -20233,8 +20395,11 @@
       <c r="DO58">
         <v>454</v>
       </c>
+      <c r="DP58">
+        <v>454</v>
+      </c>
     </row>
-    <row r="59" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
         <v>131</v>
       </c>
@@ -20589,8 +20754,11 @@
       <c r="DO59">
         <v>131</v>
       </c>
+      <c r="DP59">
+        <v>131</v>
+      </c>
     </row>
-    <row r="60" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
         <v>263</v>
       </c>
@@ -20945,8 +21113,11 @@
       <c r="DO60">
         <v>274</v>
       </c>
+      <c r="DP60">
+        <v>263</v>
+      </c>
     </row>
-    <row r="61" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
         <v>274</v>
       </c>
@@ -21301,8 +21472,11 @@
       <c r="DO61">
         <v>263</v>
       </c>
+      <c r="DP61">
+        <v>274</v>
+      </c>
     </row>
-    <row r="62" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
         <v>296</v>
       </c>
@@ -21657,8 +21831,11 @@
       <c r="DO62">
         <v>263</v>
       </c>
+      <c r="DP62">
+        <v>285</v>
+      </c>
     </row>
-    <row r="63" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
         <v>186</v>
       </c>
@@ -22013,8 +22190,11 @@
       <c r="DO63">
         <v>153</v>
       </c>
+      <c r="DP63">
+        <v>175</v>
+      </c>
     </row>
-    <row r="64" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
         <v>153</v>
       </c>
@@ -22369,8 +22549,11 @@
       <c r="DO64">
         <v>153</v>
       </c>
+      <c r="DP64">
+        <v>175</v>
+      </c>
     </row>
-    <row r="65" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
         <v>219</v>
       </c>
@@ -22725,8 +22908,11 @@
       <c r="DO65">
         <v>219</v>
       </c>
+      <c r="DP65">
+        <v>219</v>
+      </c>
     </row>
-    <row r="66" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
         <v>219</v>
       </c>
@@ -23081,8 +23267,11 @@
       <c r="DO66">
         <v>219</v>
       </c>
+      <c r="DP66">
+        <v>219</v>
+      </c>
     </row>
-    <row r="67" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
         <v>131</v>
       </c>
@@ -23437,8 +23626,11 @@
       <c r="DO67">
         <v>142</v>
       </c>
+      <c r="DP67">
+        <v>131</v>
+      </c>
     </row>
-    <row r="68" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
         <v>142</v>
       </c>
@@ -23793,8 +23985,11 @@
       <c r="DO68">
         <v>142</v>
       </c>
+      <c r="DP68">
+        <v>142</v>
+      </c>
     </row>
-    <row r="69" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
         <v>208</v>
       </c>
@@ -24149,8 +24344,11 @@
       <c r="DO69">
         <v>208</v>
       </c>
+      <c r="DP69">
+        <v>219</v>
+      </c>
     </row>
-    <row r="70" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
         <v>230</v>
       </c>
@@ -24505,8 +24703,11 @@
       <c r="DO70">
         <v>208</v>
       </c>
+      <c r="DP70">
+        <v>219</v>
+      </c>
     </row>
-    <row r="71" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
         <v>241</v>
       </c>
@@ -24861,8 +25062,11 @@
       <c r="DO71">
         <v>219</v>
       </c>
+      <c r="DP71">
+        <v>219</v>
+      </c>
     </row>
-    <row r="72" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B72" s="6">
         <v>219</v>
       </c>
@@ -25217,8 +25421,11 @@
       <c r="DO72">
         <v>252</v>
       </c>
+      <c r="DP72">
+        <v>219</v>
+      </c>
     </row>
-    <row r="73" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B73" s="6">
         <v>285</v>
       </c>
@@ -25573,8 +25780,11 @@
       <c r="DO73">
         <v>345</v>
       </c>
+      <c r="DP73">
+        <v>301</v>
+      </c>
     </row>
-    <row r="74" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B74" s="6">
         <v>219</v>
       </c>
@@ -25929,8 +26139,11 @@
       <c r="DO74">
         <v>252</v>
       </c>
+      <c r="DP74">
+        <v>219</v>
+      </c>
     </row>
-    <row r="75" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B75" s="6">
         <v>208</v>
       </c>
@@ -26285,8 +26498,11 @@
       <c r="DO75">
         <v>208</v>
       </c>
+      <c r="DP75">
+        <v>219</v>
+      </c>
     </row>
-    <row r="76" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B76" s="6">
         <v>208</v>
       </c>
@@ -26641,8 +26857,11 @@
       <c r="DO76">
         <v>208</v>
       </c>
+      <c r="DP76">
+        <v>208</v>
+      </c>
     </row>
-    <row r="77" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B77" s="6">
         <v>274</v>
       </c>
@@ -26997,8 +27216,11 @@
       <c r="DO77">
         <v>277</v>
       </c>
+      <c r="DP77">
+        <v>299</v>
+      </c>
     </row>
-    <row r="78" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B78" s="6">
         <v>230</v>
       </c>
@@ -27353,8 +27575,11 @@
       <c r="DO78">
         <v>208</v>
       </c>
+      <c r="DP78">
+        <v>230</v>
+      </c>
     </row>
-    <row r="79" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B79" s="6">
         <v>307</v>
       </c>
@@ -27709,8 +27934,11 @@
       <c r="DO79">
         <v>304</v>
       </c>
+      <c r="DP79">
+        <v>285</v>
+      </c>
     </row>
-    <row r="80" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B80" s="6">
         <v>219</v>
       </c>
@@ -28065,8 +28293,11 @@
       <c r="DO80">
         <v>252</v>
       </c>
+      <c r="DP80">
+        <v>219</v>
+      </c>
     </row>
-    <row r="81" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B81" s="6">
         <v>329</v>
       </c>
@@ -28421,8 +28652,11 @@
       <c r="DO81">
         <v>424</v>
       </c>
+      <c r="DP81">
+        <v>476</v>
+      </c>
     </row>
-    <row r="82" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B82" s="6">
         <v>285</v>
       </c>
@@ -28777,8 +29011,11 @@
       <c r="DO82">
         <v>335</v>
       </c>
+      <c r="DP82">
+        <v>313</v>
+      </c>
     </row>
-    <row r="83" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B83" s="6">
         <v>274</v>
       </c>
@@ -29133,8 +29370,11 @@
       <c r="DO83">
         <v>274</v>
       </c>
+      <c r="DP83">
+        <v>285</v>
+      </c>
     </row>
-    <row r="84" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
         <v>219</v>
       </c>
@@ -29489,8 +29729,11 @@
       <c r="DO84">
         <v>208</v>
       </c>
+      <c r="DP84">
+        <v>219</v>
+      </c>
     </row>
-    <row r="85" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
         <v>274</v>
       </c>
@@ -29845,8 +30088,11 @@
       <c r="DO85">
         <v>274</v>
       </c>
+      <c r="DP85">
+        <v>285</v>
+      </c>
     </row>
-    <row r="86" spans="2:119" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:120" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
         <v>296</v>
       </c>
@@ -30201,404 +30447,7 @@
       <c r="DO86">
         <v>274</v>
       </c>
-    </row>
-    <row r="87" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO87">
-        <v>6797</v>
-      </c>
-    </row>
-    <row r="88" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO88">
-        <v>7578</v>
-      </c>
-    </row>
-    <row r="89" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO89">
-        <v>6776</v>
-      </c>
-    </row>
-    <row r="90" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO90">
-        <v>6835</v>
-      </c>
-    </row>
-    <row r="91" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO91">
-        <v>6206</v>
-      </c>
-    </row>
-    <row r="92" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO92">
-        <v>6206</v>
-      </c>
-    </row>
-    <row r="93" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO93">
-        <v>6776</v>
-      </c>
-    </row>
-    <row r="94" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO94">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="95" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO95">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="96" spans="2:119" x14ac:dyDescent="0.25">
-      <c r="DO96">
-        <v>5347</v>
-      </c>
-    </row>
-    <row r="97" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO97">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="98" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO98">
-        <v>6637</v>
-      </c>
-    </row>
-    <row r="99" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO99">
-        <v>6744</v>
-      </c>
-    </row>
-    <row r="100" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO100">
-        <v>4073</v>
-      </c>
-    </row>
-    <row r="101" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO101">
-        <v>5206</v>
-      </c>
-    </row>
-    <row r="102" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO102">
-        <v>6546</v>
-      </c>
-    </row>
-    <row r="103" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO103">
-        <v>6405</v>
-      </c>
-    </row>
-    <row r="104" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO104">
-        <v>5571</v>
-      </c>
-    </row>
-    <row r="105" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO105">
-        <v>6182</v>
-      </c>
-    </row>
-    <row r="106" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO106">
-        <v>6250</v>
-      </c>
-    </row>
-    <row r="107" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO107">
-        <v>6405</v>
-      </c>
-    </row>
-    <row r="108" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO108">
-        <v>4885</v>
-      </c>
-    </row>
-    <row r="109" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO109">
-        <v>6084</v>
-      </c>
-    </row>
-    <row r="110" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO110">
-        <v>5893</v>
-      </c>
-    </row>
-    <row r="111" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO111">
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="112" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO112">
-        <v>5170</v>
-      </c>
-    </row>
-    <row r="113" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO113">
-        <v>4708</v>
-      </c>
-    </row>
-    <row r="114" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO114">
-        <v>3713</v>
-      </c>
-    </row>
-    <row r="115" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO115">
-        <v>5572</v>
-      </c>
-    </row>
-    <row r="116" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO116">
-        <v>4008</v>
-      </c>
-    </row>
-    <row r="117" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO117">
-        <v>3777</v>
-      </c>
-    </row>
-    <row r="118" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO118">
-        <v>2509</v>
-      </c>
-    </row>
-    <row r="119" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO119">
-        <v>4351</v>
-      </c>
-    </row>
-    <row r="120" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO120">
-        <v>4036</v>
-      </c>
-    </row>
-    <row r="121" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO121">
-        <v>3302</v>
-      </c>
-    </row>
-    <row r="122" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO122">
-        <v>3081</v>
-      </c>
-    </row>
-    <row r="123" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO123">
-        <v>4155</v>
-      </c>
-    </row>
-    <row r="124" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO124">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="125" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO125">
-        <v>2686</v>
-      </c>
-    </row>
-    <row r="126" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO126">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="127" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO127">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="128" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO128">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="129" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO129">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="130" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO130">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="131" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO131">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="132" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO132">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="133" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO133">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="134" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO134">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="135" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO135">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="136" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO136">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="137" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO137">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="138" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO138">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="139" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO139">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="140" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO140">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="141" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO141">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="142" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO142">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="143" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO143">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="144" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO144">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="145" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO145">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="146" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO146">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="147" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO147">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="148" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO148">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="149" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO149">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="150" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO150">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="151" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO151">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="152" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO152">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="153" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO153">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="154" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO154">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="155" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO155">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="156" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO156">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="157" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO157">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="158" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO158">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="159" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO159">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO160">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="161" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO161">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="162" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO162">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="163" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO163">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="164" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO164">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="165" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO165">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="166" spans="119:119" x14ac:dyDescent="0.25">
-      <c r="DO166">
+      <c r="DP86">
         <v>296</v>
       </c>
     </row>
@@ -30613,7 +30462,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30872,15 +30721,15 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="0"/>
-        <v>54864.667154352595</v>
+        <v>54844.606946983549</v>
       </c>
       <c r="D16" s="11">
         <f t="shared" si="1"/>
-        <v>822970.00731528888</v>
+        <v>822669.10420475318</v>
       </c>
     </row>
   </sheetData>
